--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A534E85B-F3A0-DC4B-9DD4-11D22EBCA1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0612E8DB-A39F-8A41-B30E-A72CA1CA8EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="39020" windowHeight="28300" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Partitions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Drives!$B$5:$T$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Drives!$B$5:$T$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
   <si>
     <t>Total</t>
   </si>
@@ -84,12 +84,6 @@
     <t>/share/31</t>
   </si>
   <si>
-    <t>/share/34</t>
-  </si>
-  <si>
-    <t>/share/35</t>
-  </si>
-  <si>
     <t>/share/20</t>
   </si>
   <si>
@@ -108,199 +102,175 @@
     <t>/backup/81</t>
   </si>
   <si>
-    <t>/backup/82</t>
-  </si>
-  <si>
     <t>backup_01</t>
   </si>
   <si>
     <t>backup_02</t>
   </si>
   <si>
+    <t>backup_04</t>
+  </si>
+  <si>
+    <t>backup_05</t>
+  </si>
+  <si>
+    <t>backup_06</t>
+  </si>
+  <si>
+    <t>backup_07</t>
+  </si>
+  <si>
+    <t>share_08</t>
+  </si>
+  <si>
+    <t>share_09</t>
+  </si>
+  <si>
+    <t>share_01</t>
+  </si>
+  <si>
+    <t>share_02</t>
+  </si>
+  <si>
+    <t>share_03</t>
+  </si>
+  <si>
+    <t>share_04</t>
+  </si>
+  <si>
+    <t>share_05</t>
+  </si>
+  <si>
+    <t>share_06</t>
+  </si>
+  <si>
+    <t>share_07</t>
+  </si>
+  <si>
+    <t>share_10</t>
+  </si>
+  <si>
+    <t>USB3 G1 / SATA</t>
+  </si>
+  <si>
+    <t>macmini-mad (M2 Pro)</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Line Item</t>
+  </si>
+  <si>
+    <t>raspbpi-jen (Pi 3)</t>
+  </si>
+  <si>
+    <t>raspbpi-jil (Pi 4)</t>
+  </si>
+  <si>
+    <t>macmini-may (2014)</t>
+  </si>
+  <si>
+    <t>macmini-max (2014)</t>
+  </si>
+  <si>
+    <t>fwkdesk-kit (Ryzen 395)</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Line Items</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>USB3 G2 / SATA</t>
+  </si>
+  <si>
+    <t>USB2 G1 / SATA</t>
+  </si>
+  <si>
+    <t>USB3 G2 / NVMe</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Volumes</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>macmini-mrg</t>
+  </si>
+  <si>
+    <t>macmini-may</t>
+  </si>
+  <si>
+    <t>macmini-max</t>
+  </si>
+  <si>
+    <t>macmini-mad</t>
+  </si>
+  <si>
+    <t>MACOS</t>
+  </si>
+  <si>
+    <t>BOOT</t>
+  </si>
+  <si>
+    <t>SWAP</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/var</t>
+  </si>
+  <si>
+    <t>/tmp</t>
+  </si>
+  <si>
+    <t>/home</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>/share/xx</t>
+  </si>
+  <si>
+    <t>/share/21</t>
+  </si>
+  <si>
+    <t>/share/42</t>
+  </si>
+  <si>
+    <t>Useable</t>
+  </si>
+  <si>
+    <t>Allocated</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>share_11</t>
+  </si>
+  <si>
     <t>backup_03</t>
-  </si>
-  <si>
-    <t>backup_04</t>
-  </si>
-  <si>
-    <t>backup_05</t>
-  </si>
-  <si>
-    <t>backup_06</t>
-  </si>
-  <si>
-    <t>backup_07</t>
-  </si>
-  <si>
-    <t>share_08</t>
-  </si>
-  <si>
-    <t>share_09</t>
-  </si>
-  <si>
-    <t>share_01</t>
-  </si>
-  <si>
-    <t>share_02</t>
-  </si>
-  <si>
-    <t>share_03</t>
-  </si>
-  <si>
-    <t>share_04</t>
-  </si>
-  <si>
-    <t>share_05</t>
-  </si>
-  <si>
-    <t>share_06</t>
-  </si>
-  <si>
-    <t>share_07</t>
-  </si>
-  <si>
-    <t>share_10</t>
-  </si>
-  <si>
-    <t>USB3 G1 / SATA</t>
-  </si>
-  <si>
-    <t>/share/01</t>
-  </si>
-  <si>
-    <t>/share/02</t>
-  </si>
-  <si>
-    <t>backup_08</t>
-  </si>
-  <si>
-    <t>macmini-mad (M2 Pro)</t>
-  </si>
-  <si>
-    <t>USB3 G1 / NVMe</t>
-  </si>
-  <si>
-    <t>/share/13</t>
-  </si>
-  <si>
-    <t>Totals</t>
-  </si>
-  <si>
-    <t>Backup</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Line Item</t>
-  </si>
-  <si>
-    <t>raspbpi-jen (Pi 3)</t>
-  </si>
-  <si>
-    <t>raspbpi-jil (Pi 4)</t>
-  </si>
-  <si>
-    <t>macmini-may (2014)</t>
-  </si>
-  <si>
-    <t>macmini-max (2014)</t>
-  </si>
-  <si>
-    <t>fwkdesk-kit (Ryzen 395)</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Line Items</t>
-  </si>
-  <si>
-    <t>Host</t>
-  </si>
-  <si>
-    <t>Margin</t>
-  </si>
-  <si>
-    <t>USB3 G2 / SATA</t>
-  </si>
-  <si>
-    <t>USB2 G1 / SATA</t>
-  </si>
-  <si>
-    <t>USB3 G2 / NVMe</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Volumes</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>macmini-mrg</t>
-  </si>
-  <si>
-    <t>macmini-may</t>
-  </si>
-  <si>
-    <t>macmini-max</t>
-  </si>
-  <si>
-    <t>macmini-mad</t>
-  </si>
-  <si>
-    <t>MACOS</t>
-  </si>
-  <si>
-    <t>BOOT</t>
-  </si>
-  <si>
-    <t>SWAP</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>/var</t>
-  </si>
-  <si>
-    <t>/tmp</t>
-  </si>
-  <si>
-    <t>/home</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>/share/xx</t>
-  </si>
-  <si>
-    <t>/share/21</t>
-  </si>
-  <si>
-    <t>/share/42</t>
-  </si>
-  <si>
-    <t>/share/22</t>
-  </si>
-  <si>
-    <t>Useable</t>
-  </si>
-  <si>
-    <t>Allocated</t>
-  </si>
-  <si>
-    <t>SYSTEM</t>
-  </si>
-  <si>
-    <t>backup_09</t>
-  </si>
-  <si>
-    <t>backup_10</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
-  <dimension ref="B2:BH59"/>
+  <dimension ref="B2:BH56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1111,7 @@
   <sheetData>
     <row r="2" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="63" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
@@ -1151,7 +1121,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="63"/>
       <c r="K2" s="63" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L2" s="63"/>
       <c r="M2" s="63"/>
@@ -1171,7 +1141,7 @@
       <c r="E3" s="69"/>
       <c r="F3" s="70"/>
       <c r="G3" s="65" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
@@ -1191,7 +1161,7 @@
     </row>
     <row r="4" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="68" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
@@ -1221,58 +1191,58 @@
     </row>
     <row r="5" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="T5" s="33" t="s">
         <v>0</v>
@@ -1291,46 +1261,46 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16">
-        <f>SUM(K7:K55)</f>
-        <v>24.800000000000004</v>
+        <f>SUM(K7:K52)</f>
+        <v>25.300000000000004</v>
       </c>
       <c r="L6" s="16">
-        <f>SUM(L7:L55)</f>
-        <v>47.168750000000003</v>
+        <f>SUM(L7:L52)</f>
+        <v>46.8</v>
       </c>
       <c r="M6" s="16">
         <f>L6-K6</f>
-        <v>22.368749999999999</v>
+        <v>21.499999999999993</v>
       </c>
       <c r="N6" s="16">
-        <f>SUM(N7:N55)</f>
-        <v>71.96875</v>
+        <f>SUM(N7:N52)</f>
+        <v>72.099999999999994</v>
       </c>
       <c r="O6" s="16">
-        <f>K6+SUM(I7:I55)</f>
-        <v>46.7</v>
+        <f>K6+SUM(I7:I52)</f>
+        <v>46.2</v>
       </c>
       <c r="P6" s="16">
-        <f>L6+SUM(J7:J55)</f>
-        <v>55.168750000000003</v>
+        <f>L6+SUM(J7:J52)</f>
+        <v>54.8</v>
       </c>
       <c r="Q6" s="16">
         <f>P6-O6</f>
-        <v>8.46875</v>
+        <v>8.5999999999999943</v>
       </c>
       <c r="R6" s="16">
         <f>O6+P6</f>
-        <v>101.86875000000001</v>
+        <v>101</v>
       </c>
       <c r="S6" s="43"/>
       <c r="T6" s="8">
-        <f>SUM(S7:S55)</f>
-        <v>6369</v>
+        <f>SUM(S7:S52)</f>
+        <v>6088</v>
       </c>
     </row>
     <row r="7" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C7" s="28">
         <v>200</v>
@@ -1361,23 +1331,23 @@
     </row>
     <row r="8" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="56" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C8" s="57">
         <v>201</v>
       </c>
       <c r="D8" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="56" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="58" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="59">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
@@ -1391,12 +1361,12 @@
       </c>
       <c r="P8" s="59">
         <f>H8+J8</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q8" s="59"/>
       <c r="R8" s="59">
         <f>O8+P8</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S8" s="60"/>
       <c r="T8" s="60"/>
@@ -1410,7 +1380,7 @@
     </row>
     <row r="9" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C9" s="28">
         <v>202</v>
@@ -1442,7 +1412,7 @@
     </row>
     <row r="10" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="42" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C10" s="27">
         <v>203</v>
@@ -1460,15 +1430,15 @@
       </c>
       <c r="L10" s="16">
         <f>SUM(H8:H9)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M10" s="16">
         <f>L10-K10</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N10" s="16">
         <f>K10+L10</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O10" s="16">
         <f>SUM(G7:G7)+SUM(I7:I7)</f>
@@ -1476,15 +1446,15 @@
       </c>
       <c r="P10" s="16">
         <f>SUM(H8:H9)+SUM(J8:J9)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q10" s="16">
         <f>P10-O10</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R10" s="16">
         <f>O10+P10</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19">
@@ -1501,7 +1471,7 @@
     </row>
     <row r="11" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C11" s="28">
         <v>300</v>
@@ -1531,23 +1501,23 @@
     </row>
     <row r="12" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C12" s="57">
         <v>301</v>
       </c>
       <c r="D12" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="56" t="s">
-        <v>24</v>
-      </c>
       <c r="F12" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="59"/>
       <c r="J12" s="59"/>
@@ -1561,12 +1531,12 @@
       </c>
       <c r="P12" s="59">
         <f>H12+J12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="59"/>
       <c r="R12" s="59">
         <f>O12+P12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="60"/>
       <c r="T12" s="60"/>
@@ -1578,23 +1548,23 @@
     </row>
     <row r="13" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C13" s="57">
         <v>302</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="59"/>
       <c r="J13" s="59"/>
@@ -1608,12 +1578,12 @@
       </c>
       <c r="P13" s="59">
         <f>H13+J13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="59"/>
       <c r="R13" s="59">
         <f>O13+P13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="60"/>
       <c r="T13" s="60"/>
@@ -1625,7 +1595,7 @@
     </row>
     <row r="14" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="34" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C14" s="28">
         <v>303</v>
@@ -1655,7 +1625,7 @@
     </row>
     <row r="15" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C15" s="27">
         <v>304</v>
@@ -1673,15 +1643,15 @@
       </c>
       <c r="L15" s="16">
         <f>SUM(H12:H14)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" s="16">
         <f>L15-K15</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" s="16">
         <f>K15+L15</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O15" s="16">
         <f>SUM(G11:G11)+SUM(I11:I11)</f>
@@ -1689,15 +1659,15 @@
       </c>
       <c r="P15" s="16">
         <f>SUM(H12:H14)+SUM(J12:J14)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="16">
         <f>P15-O15</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15" s="16">
         <f>O15+P15</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S15" s="19"/>
       <c r="T15" s="19">
@@ -1712,7 +1682,7 @@
     </row>
     <row r="16" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C16" s="57">
         <v>400</v>
@@ -1721,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F16" s="58" t="s">
         <v>5</v>
@@ -1759,7 +1729,7 @@
     </row>
     <row r="17" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="56" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C17" s="57">
         <v>401</v>
@@ -1768,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F17" s="58" t="s">
         <v>4</v>
@@ -1806,19 +1776,19 @@
     </row>
     <row r="18" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="56" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C18" s="57">
         <v>401</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" s="59">
         <v>0.5</v>
@@ -1853,7 +1823,7 @@
     </row>
     <row r="19" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C19" s="28">
         <v>402</v>
@@ -1883,7 +1853,7 @@
     </row>
     <row r="20" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="56" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C20" s="57">
         <v>403</v>
@@ -1892,15 +1862,14 @@
         <v>11</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="59">
-        <f>6/1.024</f>
-        <v>5.859375</v>
+        <v>5.5</v>
       </c>
       <c r="I20" s="59"/>
       <c r="J20" s="59"/>
@@ -1914,12 +1883,12 @@
       </c>
       <c r="P20" s="59">
         <f>H20+J20</f>
-        <v>5.859375</v>
+        <v>5.5</v>
       </c>
       <c r="Q20" s="59"/>
       <c r="R20" s="59">
         <f>O20+P20</f>
-        <v>5.859375</v>
+        <v>5.5</v>
       </c>
       <c r="S20" s="60"/>
       <c r="T20" s="60"/>
@@ -1949,7 +1918,7 @@
     </row>
     <row r="21" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C21" s="28">
         <v>404</v>
@@ -1997,7 +1966,7 @@
     </row>
     <row r="22" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="42" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C22" s="27">
         <v>405</v>
@@ -2015,15 +1984,15 @@
       </c>
       <c r="L22" s="16">
         <f>SUM(H20:H21)</f>
-        <v>5.859375</v>
+        <v>5.5</v>
       </c>
       <c r="M22" s="16">
         <f>L22-K22</f>
-        <v>0.45937499999999964</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="N22" s="16">
         <f>K22+L22</f>
-        <v>11.259375</v>
+        <v>10.9</v>
       </c>
       <c r="O22" s="16">
         <f>SUM(G16:G19)+SUM(I16:I19)</f>
@@ -2031,15 +2000,15 @@
       </c>
       <c r="P22" s="16">
         <f>SUM(H20:H21)+SUM(J20:J21)</f>
-        <v>5.859375</v>
+        <v>5.5</v>
       </c>
       <c r="Q22" s="16">
         <f>P22-O22</f>
-        <v>0.45937499999999964</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="R22" s="16">
         <f>O22+P22</f>
-        <v>11.259375</v>
+        <v>10.9</v>
       </c>
       <c r="S22" s="19"/>
       <c r="T22" s="19">
@@ -2072,7 +2041,7 @@
     </row>
     <row r="23" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="56" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C23" s="61">
         <v>500</v>
@@ -2081,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F23" s="58" t="s">
         <v>5</v>
@@ -2137,7 +2106,7 @@
     </row>
     <row r="24" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="56" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C24" s="61">
         <v>501</v>
@@ -2146,7 +2115,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F24" s="58" t="s">
         <v>4</v>
@@ -2201,60 +2170,58 @@
       <c r="BD24" s="1"/>
     </row>
     <row r="25" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="30">
-        <v>503</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13">
-        <v>1</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13">
+      <c r="B25" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="61">
+        <v>502</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59">
+        <f t="shared" ref="O25" si="2">G25+I25</f>
+        <v>0.5</v>
+      </c>
+      <c r="P25" s="59">
+        <f t="shared" ref="P25" si="3">H25+J25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59">
         <f>O25+P25</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="20">
-        <v>80</v>
-      </c>
-      <c r="T25" s="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
     </row>
     <row r="26" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="40" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C26" s="30">
-        <v>504</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>15</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="D26" s="39"/>
       <c r="E26" s="40"/>
       <c r="F26" s="39" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -2286,10 +2253,10 @@
     </row>
     <row r="27" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C27" s="31">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="34"/>
@@ -2311,24 +2278,23 @@
     </row>
     <row r="28" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="56" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C28" s="61">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F28" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28" s="59"/>
       <c r="H28" s="59">
-        <f>10/1.024</f>
-        <v>9.765625</v>
+        <v>9.1</v>
       </c>
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
@@ -2342,22 +2308,22 @@
       </c>
       <c r="P28" s="59">
         <f>H28+J28</f>
-        <v>9.765625</v>
+        <v>9.1</v>
       </c>
       <c r="Q28" s="59"/>
       <c r="R28" s="59">
         <f>O28+P28</f>
-        <v>9.765625</v>
+        <v>9.1</v>
       </c>
       <c r="S28" s="60"/>
       <c r="T28" s="60"/>
     </row>
     <row r="29" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C29" s="31">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="34"/>
@@ -2379,10 +2345,10 @@
     </row>
     <row r="30" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="42" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C30" s="32">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
@@ -2393,40 +2359,40 @@
       <c r="J30" s="23"/>
       <c r="K30" s="16">
         <f>SUM(G23:G27)</f>
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="L30" s="16">
         <f>SUM(H28:H29)</f>
-        <v>9.765625</v>
+        <v>9.1</v>
       </c>
       <c r="M30" s="16">
         <f>L30-K30</f>
-        <v>3.0656249999999998</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="N30" s="16">
         <f>K30+L30</f>
-        <v>16.465624999999999</v>
+        <v>16.3</v>
       </c>
       <c r="O30" s="16">
         <f>SUM(G23:G27)+SUM(I23:I27)</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="P30" s="16">
         <f>SUM(H28:H29)+SUM(J28:J29)</f>
-        <v>9.765625</v>
+        <v>9.1</v>
       </c>
       <c r="Q30" s="16">
         <f>P30-O30</f>
-        <v>0.265625</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="R30" s="16">
         <f>O30+P30</f>
-        <v>19.265625</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="S30" s="19"/>
       <c r="T30" s="19">
         <f>SUM(S23:S29)</f>
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="AE30" s="53"/>
       <c r="AF30" s="54"/>
@@ -2454,16 +2420,16 @@
     </row>
     <row r="31" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="56" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C31" s="61">
         <v>600</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F31" s="58" t="s">
         <v>5</v>
@@ -2479,11 +2445,11 @@
       <c r="M31" s="59"/>
       <c r="N31" s="59"/>
       <c r="O31" s="59">
-        <f t="shared" ref="O31:P33" si="2">G31+I31</f>
+        <f t="shared" ref="O31:P33" si="4">G31+I31</f>
         <v>1.3</v>
       </c>
       <c r="P31" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31" s="59"/>
@@ -2519,16 +2485,16 @@
     </row>
     <row r="32" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="56" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C32" s="61">
         <v>601</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F32" s="58" t="s">
         <v>4</v>
@@ -2544,11 +2510,11 @@
       <c r="M32" s="59"/>
       <c r="N32" s="59"/>
       <c r="O32" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="P32" s="59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32" s="59"/>
@@ -2584,17 +2550,15 @@
     </row>
     <row r="33" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="40" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C33" s="30">
         <v>602</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>81</v>
-      </c>
+      <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -2607,11 +2571,11 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.7</v>
       </c>
       <c r="P33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33" s="13"/>
@@ -2620,7 +2584,7 @@
         <v>3.7</v>
       </c>
       <c r="S33" s="20">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="T33" s="20"/>
       <c r="AE33" s="53"/>
@@ -2649,7 +2613,7 @@
     </row>
     <row r="34" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C34" s="31">
         <v>603</v>
@@ -2697,7 +2661,7 @@
     </row>
     <row r="35" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="56" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C35" s="61">
         <v>604</v>
@@ -2706,15 +2670,14 @@
         <v>11</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F35" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G35" s="59"/>
       <c r="H35" s="59">
-        <f>2/1.024</f>
-        <v>1.953125</v>
+        <v>6</v>
       </c>
       <c r="I35" s="59"/>
       <c r="J35" s="59"/>
@@ -2723,17 +2686,17 @@
       <c r="M35" s="59"/>
       <c r="N35" s="59"/>
       <c r="O35" s="59">
-        <f>G35+I35</f>
+        <f t="shared" ref="O35:P35" si="5">G35+I35</f>
         <v>0</v>
       </c>
       <c r="P35" s="59">
-        <f>H35+J35</f>
-        <v>1.953125</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="Q35" s="59"/>
       <c r="R35" s="59">
         <f>O35+P35</f>
-        <v>1.953125</v>
+        <v>6</v>
       </c>
       <c r="S35" s="60"/>
       <c r="T35" s="60"/>
@@ -2762,47 +2725,29 @@
       <c r="BD35" s="54"/>
     </row>
     <row r="36" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="61">
+      <c r="B36" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="31">
         <v>605</v>
       </c>
-      <c r="D36" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59">
-        <f>2/1.024</f>
-        <v>1.953125</v>
-      </c>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59">
-        <f>G36+I36</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="59">
-        <f>H36+J36</f>
-        <v>1.953125</v>
-      </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59">
-        <f>O36+P36</f>
-        <v>1.953125</v>
-      </c>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
       <c r="AE36" s="53"/>
       <c r="AF36" s="54"/>
       <c r="AG36" s="54"/>
@@ -2828,46 +2773,56 @@
       <c r="BD36" s="54"/>
     </row>
     <row r="37" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="61">
+      <c r="B37" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="32">
         <v>606</v>
       </c>
-      <c r="D37" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59">
-        <v>1</v>
-      </c>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59">
-        <f>G37+I37</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="59">
-        <f>H37+J37</f>
-        <v>1</v>
-      </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59">
-        <f>O37+P37</f>
-        <v>1</v>
-      </c>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="16">
+        <f>SUM(G31:G34)</f>
+        <v>1.8</v>
+      </c>
+      <c r="L37" s="16">
+        <f>SUM(H35:H36)</f>
+        <v>6</v>
+      </c>
+      <c r="M37" s="16">
+        <f>L37-K37</f>
+        <v>4.2</v>
+      </c>
+      <c r="N37" s="16">
+        <f>K37+L37</f>
+        <v>7.8</v>
+      </c>
+      <c r="O37" s="16">
+        <f>SUM(G31:G34)+SUM(I31:I34)</f>
+        <v>5.5</v>
+      </c>
+      <c r="P37" s="16">
+        <f>SUM(H35:H36)+SUM(J35:J36)</f>
+        <v>6</v>
+      </c>
+      <c r="Q37" s="16">
+        <f>P37-O37</f>
+        <v>0.5</v>
+      </c>
+      <c r="R37" s="16">
+        <f t="shared" ref="R37:R42" si="6">O37+P37</f>
+        <v>11.5</v>
+      </c>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19">
+        <f>SUM(S31:S36)</f>
+        <v>171</v>
+      </c>
       <c r="AE37" s="53"/>
       <c r="AF37" s="54"/>
       <c r="AG37" s="54"/>
@@ -2893,46 +2848,42 @@
       <c r="BD37" s="54"/>
     </row>
     <row r="38" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="61">
-        <v>607</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59">
-        <v>1</v>
-      </c>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59">
-        <f>G38+I38</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="59">
-        <f>H38+J38</f>
-        <v>1</v>
-      </c>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59">
-        <f>O38+P38</f>
-        <v>1</v>
-      </c>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
+      <c r="B38" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="29">
+        <v>700</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11">
+        <f t="shared" ref="O38:P42" si="7">G38+I38</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
       <c r="AE38" s="53"/>
       <c r="AF38" s="54"/>
       <c r="AG38" s="54"/>
@@ -2958,29 +2909,46 @@
       <c r="BD38" s="54"/>
     </row>
     <row r="39" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="31">
-        <v>608</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
+      <c r="B39" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="29">
+        <v>701</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11">
+        <f t="shared" si="7"/>
+        <v>3.7</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11">
+        <f t="shared" si="6"/>
+        <v>3.7</v>
+      </c>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
       <c r="AE39" s="53"/>
       <c r="AF39" s="54"/>
       <c r="AG39" s="54"/>
@@ -3006,56 +2974,46 @@
       <c r="BD39" s="54"/>
     </row>
     <row r="40" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="32">
-        <v>609</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="16">
-        <f>SUM(G31:G34)</f>
-        <v>1.8</v>
-      </c>
-      <c r="L40" s="16">
-        <f>SUM(H35:H39)</f>
-        <v>5.90625</v>
-      </c>
-      <c r="M40" s="16">
-        <f>L40-K40</f>
-        <v>4.1062500000000002</v>
-      </c>
-      <c r="N40" s="16">
-        <f>K40+L40</f>
-        <v>7.7062499999999998</v>
-      </c>
-      <c r="O40" s="16">
-        <f>SUM(G31:G34)+SUM(I31:I34)</f>
-        <v>5.5</v>
-      </c>
-      <c r="P40" s="16">
-        <f>SUM(H35:H39)+SUM(J35:J39)</f>
-        <v>5.90625</v>
-      </c>
-      <c r="Q40" s="16">
-        <f>P40-O40</f>
-        <v>0.40625</v>
-      </c>
-      <c r="R40" s="16">
-        <f t="shared" ref="R40:R45" si="3">O40+P40</f>
-        <v>11.40625</v>
-      </c>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19">
-        <f>SUM(S31:S39)</f>
-        <v>372</v>
-      </c>
+      <c r="B40" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="29">
+        <v>702</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11">
+        <f t="shared" si="7"/>
+        <v>3.6</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11">
+        <f t="shared" si="6"/>
+        <v>3.6</v>
+      </c>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
       <c r="AE40" s="53"/>
       <c r="AF40" s="54"/>
       <c r="AG40" s="54"/>
@@ -3082,20 +3040,24 @@
     </row>
     <row r="41" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="36" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C41" s="29">
-        <v>700</v>
-      </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
+        <v>703</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>35</v>
+      </c>
       <c r="F41" s="37" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="11"/>
+        <v>3.6</v>
+      </c>
+      <c r="H41" s="62"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
@@ -3103,17 +3065,17 @@
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11">
-        <f t="shared" ref="O41:P45" si="4">G41+I41</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.6</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.6</v>
       </c>
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
@@ -3142,46 +3104,45 @@
       <c r="BD41" s="54"/>
     </row>
     <row r="42" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="29">
-        <v>701</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="11">
-        <v>3.7</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11">
-        <f t="shared" si="4"/>
-        <v>3.7</v>
-      </c>
-      <c r="P42" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11">
-        <f t="shared" si="3"/>
-        <v>3.7</v>
-      </c>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
+      <c r="B42" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="30">
+        <v>704</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="13">
+        <v>8</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="P42" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="S42" s="20">
+        <f>35+946</f>
+        <v>981</v>
+      </c>
+      <c r="T42" s="20"/>
       <c r="AE42" s="53"/>
       <c r="AF42" s="54"/>
       <c r="AG42" s="54"/>
@@ -3207,46 +3168,29 @@
       <c r="BD42" s="54"/>
     </row>
     <row r="43" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="29">
-        <v>702</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="11">
-        <v>3.6</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11">
-        <f t="shared" si="4"/>
-        <v>3.6</v>
-      </c>
-      <c r="P43" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
+      <c r="B43" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="31">
+        <v>705</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
       <c r="AE43" s="53"/>
       <c r="AF43" s="54"/>
       <c r="AG43" s="54"/>
@@ -3272,553 +3216,367 @@
       <c r="BD43" s="54"/>
     </row>
     <row r="44" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="29">
-        <v>703</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="11">
-        <v>3.6</v>
-      </c>
-      <c r="H44" s="62"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11">
-        <f t="shared" si="4"/>
-        <v>3.6</v>
-      </c>
-      <c r="P44" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="AE44" s="53"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="54"/>
-      <c r="AK44" s="53"/>
-      <c r="AL44" s="54"/>
-      <c r="AM44" s="54"/>
-      <c r="AN44" s="55"/>
-      <c r="AO44" s="54"/>
-      <c r="AQ44" s="53"/>
-      <c r="AR44" s="54"/>
-      <c r="AS44" s="54"/>
-      <c r="AT44" s="55"/>
-      <c r="AU44" s="54"/>
-      <c r="AV44" s="54"/>
-      <c r="AW44" s="53"/>
-      <c r="AX44" s="54"/>
-      <c r="AY44" s="54"/>
-      <c r="AZ44" s="54"/>
-      <c r="BA44" s="54"/>
-      <c r="BB44" s="54"/>
-      <c r="BC44" s="54"/>
-      <c r="BD44" s="54"/>
+      <c r="B44" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="61">
+        <v>706</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59">
+        <v>21.8</v>
+      </c>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59">
+        <f>G44+I44</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="59">
+        <f>H44+J44</f>
+        <v>21.8</v>
+      </c>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59">
+        <f>O44+P44</f>
+        <v>21.8</v>
+      </c>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
     </row>
     <row r="45" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="30">
-        <v>704</v>
-      </c>
-      <c r="D45" s="39" t="s">
+      <c r="B45" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="31">
+        <v>707</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+    </row>
+    <row r="46" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="32">
+        <v>708</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="16">
+        <f>SUM(G38:G43)</f>
+        <v>10.9</v>
+      </c>
+      <c r="L46" s="16">
+        <f>SUM(H44:H45)</f>
+        <v>21.8</v>
+      </c>
+      <c r="M46" s="16">
+        <f>L46-K46</f>
+        <v>10.9</v>
+      </c>
+      <c r="N46" s="16">
+        <f>K46+L46</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="O46" s="16">
+        <f>SUM(G38:G43)+SUM(I38:I43)</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="P46" s="16">
+        <f>SUM(H44:H45)+SUM(J44:J45)</f>
+        <v>21.8</v>
+      </c>
+      <c r="Q46" s="16">
+        <f>P46-O46</f>
+        <v>2.9000000000000021</v>
+      </c>
+      <c r="R46" s="16">
+        <f>O46+P46</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19">
+        <f>SUM(S38:S45)</f>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="47" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="13">
-        <v>8</v>
-      </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="P45" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="S45" s="20">
-        <f>35+946</f>
-        <v>981</v>
-      </c>
-      <c r="T45" s="20"/>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="54"/>
-      <c r="AG45" s="54"/>
-      <c r="AH45" s="54"/>
-      <c r="AK45" s="53"/>
-      <c r="AL45" s="54"/>
-      <c r="AM45" s="54"/>
-      <c r="AN45" s="55"/>
-      <c r="AO45" s="54"/>
-      <c r="AQ45" s="53"/>
-      <c r="AR45" s="54"/>
-      <c r="AS45" s="54"/>
-      <c r="AT45" s="55"/>
-      <c r="AU45" s="54"/>
-      <c r="AV45" s="54"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="54"/>
-      <c r="AY45" s="54"/>
-      <c r="AZ45" s="54"/>
-      <c r="BA45" s="54"/>
-      <c r="BB45" s="54"/>
-      <c r="BC45" s="54"/>
-      <c r="BD45" s="54"/>
-    </row>
-    <row r="46" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="31">
-        <v>705</v>
-      </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="54"/>
-      <c r="AG46" s="54"/>
-      <c r="AH46" s="54"/>
-      <c r="AK46" s="53"/>
-      <c r="AL46" s="54"/>
-      <c r="AM46" s="54"/>
-      <c r="AN46" s="55"/>
-      <c r="AO46" s="54"/>
-      <c r="AQ46" s="53"/>
-      <c r="AR46" s="54"/>
-      <c r="AS46" s="54"/>
-      <c r="AT46" s="55"/>
-      <c r="AU46" s="54"/>
-      <c r="AV46" s="54"/>
-      <c r="AW46" s="53"/>
-      <c r="AX46" s="54"/>
-      <c r="AY46" s="54"/>
-      <c r="AZ46" s="54"/>
-      <c r="BA46" s="54"/>
-      <c r="BB46" s="54"/>
-      <c r="BC46" s="54"/>
-      <c r="BD46" s="54"/>
-    </row>
-    <row r="47" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="61">
-        <v>706</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59">
-        <f>24/1.024</f>
-        <v>23.4375</v>
-      </c>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59">
+      <c r="C47" s="30">
+        <v>800</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13">
         <f>G47+I47</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="59">
+        <v>3.7</v>
+      </c>
+      <c r="P47" s="13">
         <f>H47+J47</f>
-        <v>23.4375</v>
-      </c>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13">
         <f>O47+P47</f>
-        <v>23.4375</v>
-      </c>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
+        <v>3.7</v>
+      </c>
+      <c r="S47" s="7">
+        <v>4100</v>
+      </c>
+      <c r="T47" s="20"/>
     </row>
     <row r="48" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="31">
-        <v>707</v>
-      </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
+      <c r="B48" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="30">
+        <v>801</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13">
+        <f>G48+I48</f>
+        <v>3.7</v>
+      </c>
+      <c r="P48" s="13">
+        <f>H48+J48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13">
+        <f>O48+P48</f>
+        <v>3.7</v>
+      </c>
+      <c r="S48" s="20">
+        <v>372</v>
+      </c>
+      <c r="T48" s="20"/>
     </row>
     <row r="49" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="32">
-        <v>708</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="16">
-        <f>SUM(G41:G46)</f>
-        <v>10.9</v>
-      </c>
-      <c r="L49" s="16">
-        <f>SUM(H47:H48)</f>
-        <v>23.4375</v>
-      </c>
-      <c r="M49" s="16">
-        <f>L49-K49</f>
-        <v>12.5375</v>
-      </c>
-      <c r="N49" s="16">
-        <f>K49+L49</f>
-        <v>34.337499999999999</v>
-      </c>
-      <c r="O49" s="16">
-        <f>SUM(G41:G46)+SUM(I41:I46)</f>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="P49" s="16">
-        <f>SUM(H47:H48)+SUM(J47:J48)</f>
-        <v>23.4375</v>
-      </c>
-      <c r="Q49" s="16">
-        <f>P49-O49</f>
-        <v>4.5375000000000014</v>
-      </c>
-      <c r="R49" s="16">
-        <f>O49+P49</f>
-        <v>42.337499999999999</v>
-      </c>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19">
-        <f>SUM(S41:S48)</f>
-        <v>981</v>
-      </c>
+      <c r="B49" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="31">
+        <v>802</v>
+      </c>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
     </row>
     <row r="50" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="40" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C50" s="30">
-        <v>800</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>41</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="D50" s="39"/>
       <c r="E50" s="40"/>
       <c r="F50" s="39" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="J50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13">
+        <v>8</v>
+      </c>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13">
         <f>G50+I50</f>
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P50" s="13">
         <f>H50+J50</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q50" s="13"/>
       <c r="R50" s="13">
         <f>O50+P50</f>
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="S50" s="7">
-        <v>4100</v>
+        <v>293</v>
       </c>
       <c r="T50" s="20"/>
     </row>
     <row r="51" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="30">
-        <v>801</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13">
-        <f>G51+I51</f>
-        <v>3.7</v>
-      </c>
-      <c r="P51" s="13">
-        <f>H51+J51</f>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13">
-        <f>O51+P51</f>
-        <v>3.7</v>
-      </c>
-      <c r="S51" s="20">
-        <v>372</v>
-      </c>
-      <c r="T51" s="20"/>
+      <c r="B51" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="31">
+        <v>804</v>
+      </c>
+      <c r="D51" s="35"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
     </row>
     <row r="52" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="31">
-        <v>802</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
+      <c r="B52" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="32">
+        <v>805</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="16">
+        <f>SUM(G47:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="16">
+        <f>SUM(H50:H51)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
+        <f>L52-K52</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="16">
+        <f>K52+L52</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="16">
+        <f>SUM(G47:G49)+SUM(I47:I49)</f>
+        <v>7.4</v>
+      </c>
+      <c r="P52" s="16">
+        <f>SUM(H50:H51)+SUM(J50:J51)</f>
+        <v>8</v>
+      </c>
+      <c r="Q52" s="16">
+        <f>P52-O52</f>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R52" s="16">
+        <f>O52+P52</f>
+        <v>15.4</v>
+      </c>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19">
+        <f>SUM(S47:S51)</f>
+        <v>4765</v>
+      </c>
     </row>
     <row r="53" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="30">
-        <v>803</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13">
-        <v>8</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13">
-        <f>G53+I53</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="13">
-        <f>H53+J53</f>
-        <v>8</v>
-      </c>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13">
-        <f>O53+P53</f>
-        <v>8</v>
-      </c>
-      <c r="S53" s="7">
-        <v>293</v>
-      </c>
-      <c r="T53" s="20"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
     </row>
     <row r="54" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="31">
-        <v>804</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
     </row>
     <row r="55" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="32">
-        <v>805</v>
-      </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="16">
-        <f>SUM(G50:G52)</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="16">
-        <f>SUM(H53:H54)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="16">
-        <f>L55-K55</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="16">
-        <f>K55+L55</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="16">
-        <f>SUM(G50:G52)+SUM(I50:I52)</f>
-        <v>7.4</v>
-      </c>
-      <c r="P55" s="16">
-        <f>SUM(H53:H54)+SUM(J53:J54)</f>
-        <v>8</v>
-      </c>
-      <c r="Q55" s="16">
-        <f>P55-O55</f>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="R55" s="16">
-        <f>O55+P55</f>
-        <v>15.4</v>
-      </c>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19">
-        <f>SUM(S50:S54)</f>
-        <v>4765</v>
-      </c>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
     </row>
     <row r="56" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S56" s="21"/>
       <c r="T56" s="21"/>
     </row>
-    <row r="57" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-    </row>
-    <row r="58" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-    </row>
-    <row r="59" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B5:T55" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
+  <autoFilter ref="B5:T52" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
     <filterColumn colId="17" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:T55">
-      <sortCondition ref="C5:C55"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:T52">
+      <sortCondition ref="C5:C52"/>
     </sortState>
   </autoFilter>
   <mergeCells count="10">
@@ -3837,7 +3595,7 @@
   <conditionalFormatting sqref="E1 E5:E1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6 Q6:Q55">
+  <conditionalFormatting sqref="M6 Q6:Q52">
     <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>M6&lt;0</formula>
     </cfRule>
@@ -3862,19 +3620,19 @@
       <formula>M30&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M40">
+  <conditionalFormatting sqref="M37">
     <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>M40&lt;0</formula>
+      <formula>M37&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M49">
+  <conditionalFormatting sqref="M46">
     <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
-      <formula>M49&lt;0</formula>
+      <formula>M46&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55">
+  <conditionalFormatting sqref="M52">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>M55&lt;0</formula>
+      <formula>M52&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3902,21 +3660,21 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="46"/>
       <c r="C2" s="52" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -3927,7 +3685,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C4" s="48">
         <v>0.5</v>
@@ -3945,7 +3703,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="47" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C5" s="48">
         <v>1</v>
@@ -3962,7 +3720,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C6" s="48">
         <v>0</v>
@@ -3980,7 +3738,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="47" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C7" s="48">
         <v>25</v>
@@ -3997,7 +3755,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="47" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C8" s="48">
         <v>30</v>
@@ -4014,7 +3772,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="47" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C9" s="48">
         <v>20</v>
@@ -4031,7 +3789,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="47" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C10" s="48">
         <v>412</v>
@@ -4049,7 +3807,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C11" s="48">
         <f>1.3*1024</f>
@@ -4068,7 +3826,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="50" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C12" s="51">
         <f>SUM(C7:C11)</f>
@@ -4089,7 +3847,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C13" s="51">
         <f>SUM(C3:C11)</f>
@@ -4130,7 +3888,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C15" s="51">
         <f>C14-C13</f>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E3024-907A-CA45-A40F-969A75B1A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB2187-32A4-A24C-A6AF-6065BAB795B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB2187-32A4-A24C-A6AF-6065BAB795B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1076463D-8E90-6643-89B7-A04ECB151C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -526,9 +526,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,9 +596,6 @@
     <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,6 +622,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1038,7 +1035,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1092,84 +1089,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
     </row>
     <row r="3" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="57" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="56" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="56"/>
+      <c r="T3" s="54"/>
     </row>
     <row r="4" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="60" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="55" t="s">
+      <c r="H4" s="60"/>
+      <c r="I4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="57" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="59"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="57"/>
     </row>
     <row r="5" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
@@ -1184,7 +1181,7 @@
       <c r="E5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -1223,15 +1220,15 @@
       <c r="R5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="T5" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:60" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="23">
         <v>100</v>
       </c>
@@ -1274,44 +1271,44 @@
         <f>O6+P6</f>
         <v>99.6</v>
       </c>
-      <c r="S6" s="34"/>
+      <c r="S6" s="33"/>
       <c r="T6" s="7">
         <f>SUM(S7:S40)</f>
         <v>6157</v>
       </c>
     </row>
     <row r="7" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <v>101</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49">
         <v>0.1</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
@@ -1321,7 +1318,7 @@
       <c r="BH7" s="5"/>
     </row>
     <row r="8" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="23">
@@ -1380,37 +1377,37 @@
       <c r="BH8" s="5"/>
     </row>
     <row r="9" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <v>103</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50">
+      <c r="G9" s="49"/>
+      <c r="H9" s="49">
         <v>2</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -1418,37 +1415,37 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <v>104</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50">
+      <c r="G10" s="49"/>
+      <c r="H10" s="49">
         <v>2</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -1456,7 +1453,7 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="23">
@@ -1513,19 +1510,19 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="52">
         <v>106</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="10">
@@ -1551,19 +1548,19 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="52">
         <v>107</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="10">
@@ -1589,19 +1586,19 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="52">
         <v>108</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="10">
@@ -1627,19 +1624,19 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="52">
         <v>109</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="10"/>
@@ -1683,7 +1680,7 @@
       <c r="BD15" s="1"/>
     </row>
     <row r="16" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="23">
@@ -1758,37 +1755,37 @@
       <c r="BD16" s="1"/>
     </row>
     <row r="17" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="51">
         <v>111</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="49">
         <v>3.1</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -1814,37 +1811,37 @@
       <c r="BD17" s="1"/>
     </row>
     <row r="18" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <v>112</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="49">
         <v>3.6</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -1870,48 +1867,48 @@
       <c r="BD18" s="1"/>
     </row>
     <row r="19" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="51">
         <v>113</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="49">
         <v>0.5</v>
       </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
     </row>
     <row r="20" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>114</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="11"/>
@@ -1934,48 +1931,48 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="51">
         <v>115</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50">
+      <c r="G21" s="49"/>
+      <c r="H21" s="49">
         <v>9.1</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
     </row>
     <row r="22" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>116</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -2017,152 +2014,152 @@
         <f>SUM(S17:S21)</f>
         <v>171</v>
       </c>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="46"/>
-      <c r="AO22" s="45"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="46"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="45"/>
-      <c r="BA22" s="45"/>
-      <c r="BB22" s="45"/>
-      <c r="BC22" s="45"/>
-      <c r="BD22" s="45"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="44"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="43"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="44"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="44"/>
+      <c r="BD22" s="44"/>
     </row>
     <row r="23" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="51">
         <v>117</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="49">
         <v>1.3</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AK23" s="44"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="45"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="45"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="44"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="44"/>
+      <c r="BD23" s="44"/>
     </row>
     <row r="24" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="51">
         <v>118</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="49">
         <v>0.5</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="45"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="46"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="44"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="45"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="45"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="44"/>
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="45"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="43"/>
+      <c r="AX24" s="44"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="44"/>
+      <c r="BA24" s="44"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
     </row>
     <row r="25" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>119</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="11"/>
@@ -2183,96 +2180,96 @@
         <v>171</v>
       </c>
       <c r="T25" s="16"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="46"/>
-      <c r="AO25" s="45"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="46"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="45"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="44"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="45"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="43"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44"/>
     </row>
     <row r="26" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="51">
         <v>120</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50">
+      <c r="G26" s="49"/>
+      <c r="H26" s="49">
         <v>4</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="45"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="46"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="AZ26" s="45"/>
-      <c r="BA26" s="45"/>
-      <c r="BB26" s="45"/>
-      <c r="BC26" s="45"/>
-      <c r="BD26" s="45"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="44"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="45"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="43"/>
+      <c r="AX26" s="44"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="44"/>
+      <c r="BD26" s="44"/>
     </row>
     <row r="27" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>121</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -2314,260 +2311,260 @@
         <f>SUM(S23:S26)</f>
         <v>171</v>
       </c>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="46"/>
-      <c r="AO27" s="45"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="46"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="45"/>
-      <c r="AZ27" s="45"/>
-      <c r="BA27" s="45"/>
-      <c r="BB27" s="45"/>
-      <c r="BC27" s="45"/>
-      <c r="BD27" s="45"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="44"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="43"/>
+      <c r="AX27" s="44"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
     </row>
     <row r="28" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="51">
         <v>122</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="49">
         <v>0</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="45"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="46"/>
-      <c r="AU28" s="45"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="44"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="45"/>
-      <c r="AZ28" s="45"/>
-      <c r="BA28" s="45"/>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="45"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="44"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="45"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
     </row>
     <row r="29" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="51">
         <v>123</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="49">
         <v>3.7</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="46"/>
-      <c r="AO29" s="45"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="46"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="45"/>
-      <c r="AY29" s="45"/>
-      <c r="AZ29" s="45"/>
-      <c r="BA29" s="45"/>
-      <c r="BB29" s="45"/>
-      <c r="BC29" s="45"/>
-      <c r="BD29" s="45"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="44"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
     </row>
     <row r="30" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="51">
         <v>124</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="49">
         <v>3.6</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AK30" s="44"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="46"/>
-      <c r="AO30" s="45"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="46"/>
-      <c r="AU30" s="45"/>
-      <c r="AV30" s="45"/>
-      <c r="AW30" s="44"/>
-      <c r="AX30" s="45"/>
-      <c r="AY30" s="45"/>
-      <c r="AZ30" s="45"/>
-      <c r="BA30" s="45"/>
-      <c r="BB30" s="45"/>
-      <c r="BC30" s="45"/>
-      <c r="BD30" s="45"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="44"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="45"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="43"/>
+      <c r="AX30" s="44"/>
+      <c r="AY30" s="44"/>
+      <c r="AZ30" s="44"/>
+      <c r="BA30" s="44"/>
+      <c r="BB30" s="44"/>
+      <c r="BC30" s="44"/>
+      <c r="BD30" s="44"/>
     </row>
     <row r="31" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="51">
         <v>125</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="49">
         <v>3.6</v>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="45"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="46"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
-      <c r="AW31" s="44"/>
-      <c r="AX31" s="45"/>
-      <c r="AY31" s="45"/>
-      <c r="AZ31" s="45"/>
-      <c r="BA31" s="45"/>
-      <c r="BB31" s="45"/>
-      <c r="BC31" s="45"/>
-      <c r="BD31" s="45"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="44"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="44"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="44"/>
+      <c r="AY31" s="44"/>
+      <c r="AZ31" s="44"/>
+      <c r="BA31" s="44"/>
+      <c r="BB31" s="44"/>
+      <c r="BC31" s="44"/>
+      <c r="BD31" s="44"/>
     </row>
     <row r="32" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>126</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="30" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G32" s="12"/>
@@ -2588,40 +2585,40 @@
         <v>350</v>
       </c>
       <c r="T32" s="16"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="46"/>
-      <c r="AO32" s="45"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="46"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
-      <c r="BA32" s="45"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="45"/>
-      <c r="BD32" s="45"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="44"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="44"/>
+      <c r="BA32" s="44"/>
+      <c r="BB32" s="44"/>
+      <c r="BC32" s="44"/>
+      <c r="BD32" s="44"/>
     </row>
     <row r="33" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>126</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G33" s="12"/>
@@ -2642,40 +2639,40 @@
         <v>350</v>
       </c>
       <c r="T33" s="16"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="45"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
-      <c r="AW33" s="44"/>
-      <c r="AX33" s="45"/>
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="45"/>
-      <c r="BA33" s="45"/>
-      <c r="BB33" s="45"/>
-      <c r="BC33" s="45"/>
-      <c r="BD33" s="45"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="44"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
     </row>
     <row r="34" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <v>126</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="30" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G34" s="12"/>
@@ -2696,73 +2693,73 @@
         <v>350</v>
       </c>
       <c r="T34" s="16"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AK34" s="44"/>
-      <c r="AL34" s="45"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="46"/>
-      <c r="AO34" s="45"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="45"/>
-      <c r="AS34" s="45"/>
-      <c r="AT34" s="46"/>
-      <c r="AU34" s="45"/>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
-      <c r="BB34" s="45"/>
-      <c r="BC34" s="45"/>
-      <c r="BD34" s="45"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="44"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="43"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
+      <c r="BC34" s="44"/>
+      <c r="BD34" s="44"/>
     </row>
     <row r="35" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C35" s="51">
         <v>127</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50">
+      <c r="G35" s="49"/>
+      <c r="H35" s="49">
         <v>21.8</v>
       </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
     </row>
     <row r="36" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>128</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -2806,15 +2803,15 @@
       </c>
     </row>
     <row r="37" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="24">
         <v>129</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="30" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="29" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="11"/>
@@ -2837,15 +2834,15 @@
       <c r="T37" s="16"/>
     </row>
     <row r="38" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="24">
         <v>130</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="30" t="s">
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="29" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="11"/>
@@ -2868,15 +2865,15 @@
       <c r="T38" s="16"/>
     </row>
     <row r="39" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="24">
         <v>131</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="30" t="s">
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="29" t="s">
         <v>79</v>
       </c>
       <c r="G39" s="11"/>
@@ -2899,15 +2896,15 @@
       <c r="T39" s="16"/>
     </row>
     <row r="40" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="25">
         <v>132</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -3047,260 +3044,260 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="36" customWidth="1"/>
-    <col min="2" max="6" width="18.5" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="17.83203125" style="36"/>
+    <col min="1" max="1" width="4.6640625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="18.5" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="17.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="35"/>
+      <c r="A1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="37"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>0.5</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>0.5</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>0.5</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <f>0.525+1.1</f>
         <v>1.625</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>1</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>1</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>1</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>0</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>0</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <f>2.3+5+0.03+0.128</f>
         <v>7.4580000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>25</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>25</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <v>25</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="38">
         <v>30</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>30</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <v>30</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>20</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>20</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>1</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>412</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>412</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <v>330</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <f>390-25-30</f>
         <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <f>1.3*1024</f>
         <v>1331.2</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <f>3.1*1024</f>
         <v>3174.4</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <v>1400</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <f>SUM(C7:C11)</f>
         <v>1818.2</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <f t="shared" ref="D12:F12" si="0">SUM(D7:D11)</f>
         <v>3661.4</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <f t="shared" si="0"/>
         <v>1786</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <f>SUM(C3:C11)</f>
         <v>1819.7</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <f>SUM(D3:D11)</f>
         <v>3662.9</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <f>SUM(E3:E11)</f>
         <v>1787.5</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <f>SUM(F3:F11)</f>
         <v>461.08299999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <f>1.8*1024</f>
         <v>1843.2</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <f>3.6*1024</f>
         <v>3686.4</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <f>1.8*1024</f>
         <v>1843.2</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <f>C14-C13</f>
         <v>23.5</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="41">
         <f t="shared" ref="D15:F15" si="1">D14-D13</f>
         <v>23.5</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <f t="shared" si="1"/>
         <v>55.700000000000045</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <f t="shared" si="1"/>
         <v>3.91700000000003</v>
       </c>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1076463D-8E90-6643-89B7-A04ECB151C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64902B3-4B19-7147-8AD9-D0019728BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
+    <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" activeTab="1" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Drives" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>Metadata</t>
   </si>
   <si>
-    <t>macmini-mrg</t>
-  </si>
-  <si>
     <t>macmini-may</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>USB3.1 Hub / NVMe</t>
+  </si>
+  <si>
+    <t>macmini-meg</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
   <dimension ref="B2:BH44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1285,13 +1285,13 @@
         <v>101</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49">
@@ -1384,13 +1384,13 @@
         <v>103</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="49">
@@ -1422,13 +1422,13 @@
         <v>104</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="49">
@@ -1511,7 +1511,7 @@
     </row>
     <row r="12" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="52">
         <v>106</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="13" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="52">
         <v>107</v>
@@ -1587,19 +1587,19 @@
     </row>
     <row r="14" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="52">
         <v>108</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="10">
         <v>0.5</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="15" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="52">
         <v>109</v>
@@ -1637,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10">
@@ -1681,7 +1681,7 @@
     </row>
     <row r="16" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="23">
         <v>110</v>
@@ -1874,13 +1874,13 @@
         <v>113</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="49">
         <v>0.5</v>
@@ -1909,7 +1909,7 @@
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
       <c r="F20" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1944,7 +1944,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="49">
@@ -2102,7 +2102,7 @@
         <v>118</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>30</v>
@@ -2160,7 +2160,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2218,7 +2218,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="49"/>
       <c r="H26" s="49">
@@ -2401,7 +2401,7 @@
         <v>22</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="49">
         <v>3.7</v>
@@ -2457,7 +2457,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="49">
         <v>3.6</v>
@@ -2513,7 +2513,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="49">
         <v>3.6</v>
@@ -2565,7 +2565,7 @@
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
       <c r="F32" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2619,7 +2619,7 @@
       <c r="D33" s="29"/>
       <c r="E33" s="30"/>
       <c r="F33" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2673,7 +2673,7 @@
       <c r="D34" s="29"/>
       <c r="E34" s="30"/>
       <c r="F34" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -2731,7 +2731,7 @@
         <v>21</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="49"/>
       <c r="H35" s="49">
@@ -2874,7 +2874,7 @@
       <c r="D39" s="29"/>
       <c r="E39" s="30"/>
       <c r="F39" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3038,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C787C8C9-1F85-584D-A8D1-A8A3C747C121}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3055,21 +3055,21 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="36"/>
       <c r="C2" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="38">
         <v>0.5</v>
@@ -3089,7 +3089,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="39">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="F4" s="38">
         <f>0.525+1.1</f>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="38">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="38">
         <v>25</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="38">
         <v>30</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="38">
         <v>20</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="38">
         <v>412</v>
@@ -3193,7 +3193,7 @@
         <v>412</v>
       </c>
       <c r="E10" s="39">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F10" s="38">
         <f>390-25-30</f>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="38">
         <f>1.3*1024</f>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="41">
         <f>SUM(C7:C11)</f>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="E12" s="41">
         <f t="shared" si="0"/>
-        <v>1786</v>
+        <v>1791</v>
       </c>
       <c r="F12" s="41">
         <f t="shared" si="0"/>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="41">
         <f>SUM(C3:C11)</f>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="E13" s="41">
         <f>SUM(E3:E11)</f>
-        <v>1787.5</v>
+        <v>1793.6</v>
       </c>
       <c r="F13" s="41">
         <f>SUM(F3:F11)</f>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="41">
         <f>C14-C13</f>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="E15" s="41">
         <f t="shared" si="1"/>
-        <v>55.700000000000045</v>
+        <v>49.600000000000136</v>
       </c>
       <c r="F15" s="41">
         <f t="shared" si="1"/>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64902B3-4B19-7147-8AD9-D0019728BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CF659F-6884-1B4A-BDAB-C2EF5D51BE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" activeTab="1" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
+    <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Drives" sheetId="1" r:id="rId1"/>
@@ -528,6 +528,9 @@
     <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,7 +566,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,10 +1034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:BH44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1184,7 @@
       <c r="E5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -1220,15 +1223,15 @@
       <c r="R5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="S5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:60" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
+    <row r="6" spans="2:60" s="9" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
       <c r="C6" s="23">
         <v>100</v>
       </c>
@@ -1241,7 +1244,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13">
         <f>SUM(K7:K40)</f>
-        <v>25.300000000000004</v>
+        <v>25.299999999999997</v>
       </c>
       <c r="L6" s="13">
         <f>SUM(L7:L40)</f>
@@ -1249,11 +1252,11 @@
       </c>
       <c r="M6" s="13">
         <f>L6-K6</f>
-        <v>19.199999999999996</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="N6" s="13">
         <f>SUM(N7:N40)</f>
-        <v>69.800000000000011</v>
+        <v>69.8</v>
       </c>
       <c r="O6" s="13">
         <f>SUM(O7:O40)</f>
@@ -1271,7 +1274,7 @@
         <f>O6+P6</f>
         <v>99.6</v>
       </c>
-      <c r="S6" s="33"/>
+      <c r="S6" s="34"/>
       <c r="T6" s="7">
         <f>SUM(S7:S40)</f>
         <v>6157</v>
@@ -1279,24 +1282,24 @@
     </row>
     <row r="7" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="47">
-        <v>101</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="51">
+        <v>123</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49">
-        <v>0.1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G7" s="49">
+        <v>3.7</v>
+      </c>
+      <c r="H7" s="49"/>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
@@ -1317,8 +1320,8 @@
       <c r="BF7" s="20"/>
       <c r="BH7" s="5"/>
     </row>
-    <row r="8" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="2:60" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="23">
@@ -1333,35 +1336,35 @@
       <c r="J8" s="18"/>
       <c r="K8" s="13">
         <f>SUM(G7:G7)</f>
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L8" s="13">
         <f>SUM(H7:H7)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="13">
         <f>L8-K8</f>
-        <v>0.1</v>
+        <v>-3.7</v>
       </c>
       <c r="N8" s="13">
         <f>K8+L8</f>
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="O8" s="13">
         <f>K8+SUM(I7)</f>
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P8" s="13">
         <f>L8+SUM(J7)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="13">
         <f>P8-O8</f>
-        <v>0.1</v>
+        <v>-3.7</v>
       </c>
       <c r="R8" s="13">
         <f>O8+P8</f>
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15">
@@ -1378,24 +1381,24 @@
     </row>
     <row r="9" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="47">
-        <v>103</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="51">
+        <v>124</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49">
-        <v>2</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G9" s="49">
+        <v>3.6</v>
+      </c>
+      <c r="H9" s="49"/>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
@@ -1416,24 +1419,24 @@
     </row>
     <row r="10" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="47">
-        <v>104</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="51">
+        <v>125</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G10" s="49">
+        <v>3.6</v>
+      </c>
+      <c r="H10" s="61"/>
       <c r="I10" s="49"/>
       <c r="J10" s="49"/>
       <c r="K10" s="49"/>
@@ -1452,8 +1455,8 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="32" t="s">
+    <row r="11" spans="2:60" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="23">
@@ -1468,35 +1471,35 @@
       <c r="J11" s="18"/>
       <c r="K11" s="13">
         <f>SUM(G9:G10)</f>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="L11" s="13">
         <f>SUM(H9:H10)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" s="13">
         <f>L11-K11</f>
-        <v>4</v>
+        <v>-7.2</v>
       </c>
       <c r="N11" s="13">
         <f>K11+L11</f>
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="O11" s="13">
         <f>K11+SUM(I9:I10)</f>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="P11" s="13">
         <f>L11+SUM(J9:J10)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="13">
         <f>P11-O11</f>
-        <v>4</v>
+        <v>-7.2</v>
       </c>
       <c r="R11" s="13">
         <f>O11+P11</f>
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="15">
@@ -1510,19 +1513,19 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="52">
-        <v>106</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="28" t="s">
+      <c r="B12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="24">
+        <v>117</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="10">
@@ -1548,23 +1551,23 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="52">
-        <v>107</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="28" t="s">
+      <c r="B13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="24">
+        <v>118</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="10">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1586,57 +1589,57 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="52">
-        <v>108</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
+      <c r="B14" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="51">
+        <v>111</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="49">
+        <v>3.1</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27" t="s">
+    <row r="15" spans="2:60" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="52">
         <v>109</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="29" t="s">
         <v>75</v>
       </c>
       <c r="G15" s="10"/>
@@ -1679,8 +1682,8 @@
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
     </row>
-    <row r="16" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="32" t="s">
+    <row r="16" spans="2:60" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="23">
@@ -1695,7 +1698,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="13">
         <f>SUM(G12:G15)</f>
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L16" s="13">
         <f>SUM(H12:H15)</f>
@@ -1703,15 +1706,15 @@
       </c>
       <c r="M16" s="13">
         <f>L16-K16</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="N16" s="13">
         <f>K16+L16</f>
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
       <c r="O16" s="13">
         <f>K16+SUM(I12:I15)</f>
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P16" s="13">
         <f>L16+SUM(J12:J15)</f>
@@ -1719,11 +1722,11 @@
       </c>
       <c r="Q16" s="13">
         <f>P16-O16</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="R16" s="13">
         <f>O16+P16</f>
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="15">
@@ -1759,19 +1762,19 @@
         <v>39</v>
       </c>
       <c r="C17" s="51">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="49">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
@@ -1815,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="C18" s="51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="G18" s="49">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -1868,22 +1871,22 @@
     </row>
     <row r="19" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="51">
-        <v>113</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="C19" s="47">
+        <v>106</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="G19" s="49">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -1899,16 +1902,16 @@
       <c r="S19" s="50"/>
       <c r="T19" s="50"/>
     </row>
-    <row r="20" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
+    <row r="20" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="25">
         <v>114</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="11"/>
@@ -1930,7 +1933,7 @@
       </c>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="46" t="s">
         <v>39</v>
       </c>
@@ -1963,23 +1966,23 @@
       <c r="S21" s="50"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="s">
+    <row r="22" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="26">
         <v>116</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="13">
         <f>SUM(G17:G21)</f>
-        <v>7.2</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="L22" s="13">
         <f>SUM(H17:H21)</f>
@@ -1987,15 +1990,15 @@
       </c>
       <c r="M22" s="13">
         <f>L22-K22</f>
-        <v>1.8999999999999995</v>
+        <v>3.7</v>
       </c>
       <c r="N22" s="13">
         <f>K22+L22</f>
-        <v>16.3</v>
+        <v>14.5</v>
       </c>
       <c r="O22" s="13">
         <f>K22+SUM(I17:I21)</f>
-        <v>9</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="P22" s="13">
         <f>L22+SUM(J17:J21)</f>
@@ -2003,11 +2006,11 @@
       </c>
       <c r="Q22" s="13">
         <f>P22-O22</f>
-        <v>9.9999999999999645E-2</v>
+        <v>1.9000000000000004</v>
       </c>
       <c r="R22" s="13">
         <f>O22+P22</f>
-        <v>18.100000000000001</v>
+        <v>16.299999999999997</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15">
@@ -2040,22 +2043,22 @@
     </row>
     <row r="23" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="51">
-        <v>117</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="C23" s="47">
+        <v>107</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" s="49">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
@@ -2096,19 +2099,19 @@
     </row>
     <row r="24" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="51">
-        <v>118</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="47">
+        <v>108</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="G24" s="49">
         <v>0.5</v>
@@ -2150,16 +2153,16 @@
       <c r="BC24" s="44"/>
       <c r="BD24" s="44"/>
     </row>
-    <row r="25" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30" t="s">
+    <row r="25" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="25">
         <v>119</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="11"/>
@@ -2204,7 +2207,7 @@
       <c r="BC25" s="44"/>
       <c r="BD25" s="44"/>
     </row>
-    <row r="26" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
         <v>40</v>
       </c>
@@ -2260,23 +2263,23 @@
       <c r="BC26" s="44"/>
       <c r="BD26" s="44"/>
     </row>
-    <row r="27" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="32" t="s">
+    <row r="27" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="26">
         <v>121</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="13">
         <f>SUM(G23:G26)</f>
-        <v>1.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L27" s="13">
         <f>SUM(H23:H26)</f>
@@ -2284,15 +2287,15 @@
       </c>
       <c r="M27" s="13">
         <f>L27-K27</f>
-        <v>2.2000000000000002</v>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="N27" s="13">
         <f>K27+L27</f>
-        <v>5.8</v>
+        <v>8.1</v>
       </c>
       <c r="O27" s="13">
         <f>K27+SUM(I23:I26)</f>
-        <v>3.6</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="P27" s="13">
         <f>L27+SUM(J23:J26)</f>
@@ -2300,11 +2303,11 @@
       </c>
       <c r="Q27" s="13">
         <f>P27-O27</f>
-        <v>0.39999999999999991</v>
+        <v>-1.8999999999999995</v>
       </c>
       <c r="R27" s="13">
-        <f t="shared" ref="R27" si="0">O27+P27</f>
-        <v>7.6</v>
+        <f>O27+P27</f>
+        <v>9.8999999999999986</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="15">
@@ -2335,7 +2338,7 @@
       <c r="BC27" s="44"/>
       <c r="BD27" s="44"/>
     </row>
-    <row r="28" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="46" t="s">
         <v>32</v>
       </c>
@@ -2389,24 +2392,24 @@
     </row>
     <row r="29" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="51">
-        <v>123</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="C29" s="47">
+        <v>103</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="49">
-        <v>3.7</v>
-      </c>
-      <c r="H29" s="49"/>
+        <v>75</v>
+      </c>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49">
+        <v>2</v>
+      </c>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
       <c r="K29" s="49"/>
@@ -2445,24 +2448,24 @@
     </row>
     <row r="30" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="51">
-        <v>124</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="C30" s="47">
+        <v>104</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="49">
-        <v>3.6</v>
-      </c>
-      <c r="H30" s="49"/>
+        <v>75</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49">
+        <v>2</v>
+      </c>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
@@ -2501,24 +2504,24 @@
     </row>
     <row r="31" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="51">
-        <v>125</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="C31" s="47">
+        <v>101</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="49">
-        <v>3.6</v>
-      </c>
-      <c r="H31" s="61"/>
+        <v>74</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49">
+        <v>0.1</v>
+      </c>
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
       <c r="K31" s="49"/>
@@ -2555,16 +2558,16 @@
       <c r="BC31" s="44"/>
       <c r="BD31" s="44"/>
     </row>
-    <row r="32" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="30" t="s">
+    <row r="32" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="25">
         <v>126</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="29" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="30" t="s">
         <v>79</v>
       </c>
       <c r="G32" s="12"/>
@@ -2609,16 +2612,16 @@
       <c r="BC32" s="44"/>
       <c r="BD32" s="44"/>
     </row>
-    <row r="33" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="30" t="s">
+    <row r="33" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="25">
         <v>126</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="29" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30" t="s">
         <v>79</v>
       </c>
       <c r="G33" s="12"/>
@@ -2663,16 +2666,16 @@
       <c r="BC33" s="44"/>
       <c r="BD33" s="44"/>
     </row>
-    <row r="34" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+    <row r="34" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="25">
         <v>126</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="30" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="12"/>
@@ -2717,7 +2720,7 @@
       <c r="BC34" s="44"/>
       <c r="BD34" s="44"/>
     </row>
-    <row r="35" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="46" t="s">
         <v>32</v>
       </c>
@@ -2750,51 +2753,51 @@
       <c r="S35" s="50"/>
       <c r="T35" s="50"/>
     </row>
-    <row r="36" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="32" t="s">
+    <row r="36" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="26">
         <v>128</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="13">
         <f>SUM(G28:G35)</f>
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="L36" s="13">
         <f>SUM(H28:H35)</f>
-        <v>21.8</v>
+        <v>25.9</v>
       </c>
       <c r="M36" s="13">
         <f>L36-K36</f>
-        <v>10.9</v>
+        <v>25.9</v>
       </c>
       <c r="N36" s="13">
         <f>K36+L36</f>
-        <v>32.700000000000003</v>
+        <v>25.9</v>
       </c>
       <c r="O36" s="13">
         <f>K36+SUM(I28:I35)</f>
-        <v>21.700000000000003</v>
+        <v>10.8</v>
       </c>
       <c r="P36" s="13">
         <f>L36+SUM(J28:J35)</f>
-        <v>21.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q36" s="13">
         <f>P36-O36</f>
-        <v>9.9999999999997868E-2</v>
+        <v>15.099999999999998</v>
       </c>
       <c r="R36" s="13">
         <f>O36+P36</f>
-        <v>43.5</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="15">
@@ -2802,16 +2805,16 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="37" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
+    <row r="37" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="25">
         <v>129</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="29" t="s">
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="11"/>
@@ -2833,16 +2836,16 @@
       </c>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="s">
+    <row r="38" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="25">
         <v>130</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="29" t="s">
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="11"/>
@@ -2864,16 +2867,16 @@
       </c>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
+    <row r="39" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="25">
         <v>131</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="29" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30" t="s">
         <v>78</v>
       </c>
       <c r="G39" s="11"/>
@@ -2895,16 +2898,16 @@
       </c>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="32" t="s">
+    <row r="40" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="26">
         <v>132</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2965,9 +2968,14 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:T40" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter val="/share*"/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="17" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:T40">
-      <sortCondition ref="C5:C40"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:T31">
+      <sortCondition ref="D5:D40"/>
     </sortState>
   </autoFilter>
   <mergeCells count="10">
@@ -3038,22 +3046,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C787C8C9-1F85-584D-A8D1-A8A3C747C121}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2" max="6" width="18.5" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="17.83203125" style="35"/>
+    <col min="1" max="1" width="4.6640625" style="36" customWidth="1"/>
+    <col min="2" max="6" width="18.5" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="17.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="34"/>
+      <c r="A1" s="35"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="42" t="s">
         <v>80</v>
       </c>
@@ -3068,154 +3076,154 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="39"/>
-      <c r="F3" s="38">
+      <c r="F3" s="39">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>0.5</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="39">
         <v>0.5</v>
       </c>
       <c r="E4" s="39">
         <v>1.6</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="39">
         <f>0.525+1.1</f>
         <v>1.625</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="39">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="39">
         <v>1</v>
       </c>
       <c r="E5" s="39">
         <v>1</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="39">
         <v>0</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="39">
         <v>0</v>
       </c>
       <c r="E6" s="39">
         <v>0</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="39">
         <f>2.3+5+0.03+0.128</f>
         <v>7.4580000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="39">
         <v>25</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="39">
         <v>25</v>
       </c>
       <c r="E7" s="39">
         <v>25</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="39">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="39">
         <v>30</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="39">
         <v>30</v>
       </c>
       <c r="E8" s="39">
         <v>30</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="39">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="39">
         <v>20</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="39">
         <v>20</v>
       </c>
       <c r="E9" s="39">
         <v>1</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="39">
         <v>412</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="39">
         <v>412</v>
       </c>
       <c r="E10" s="39">
         <v>335</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="39">
         <f>390-25-30</f>
         <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="39">
         <f>1.3*1024</f>
         <v>1331.2</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="39">
         <f>3.1*1024</f>
         <v>3174.4</v>
       </c>
       <c r="E11" s="39">
         <v>1400</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="39">
         <v>0</v>
       </c>
     </row>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CF659F-6884-1B4A-BDAB-C2EF5D51BE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571437A-BB7C-7041-B26F-F89239CD2638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571437A-BB7C-7041-B26F-F89239CD2638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A938C859-C217-9840-A23B-CBEA324E6D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -598,6 +598,9 @@
     <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,9 +627,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1038,7 +1038,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1092,84 +1092,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="54" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="54"/>
+      <c r="T3" s="55"/>
     </row>
     <row r="4" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="58" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="53" t="s">
+      <c r="H4" s="61"/>
+      <c r="I4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="55" t="s">
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58"/>
     </row>
     <row r="5" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
@@ -1281,37 +1281,37 @@
       </c>
     </row>
     <row r="7" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="24">
         <v>123</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="10">
         <v>3.7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
@@ -1380,37 +1380,37 @@
       <c r="BH8" s="5"/>
     </row>
     <row r="9" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="24">
         <v>124</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="10">
         <v>3.6</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -1418,37 +1418,37 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="24">
         <v>125</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="10">
         <v>3.6</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -1630,7 +1630,7 @@
       <c r="B15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="53">
         <v>109</v>
       </c>
       <c r="D15" s="28" t="s">

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A938C859-C217-9840-A23B-CBEA324E6D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B2382-D6B4-CD4D-8B19-C62DE8C703F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1589,37 +1589,37 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="24">
         <v>111</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="10">
         <v>3.1</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
@@ -1758,37 +1758,37 @@
       <c r="BD16" s="1"/>
     </row>
     <row r="17" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="24">
         <v>112</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="10">
         <v>3.6</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
@@ -1814,37 +1814,37 @@
       <c r="BD17" s="1"/>
     </row>
     <row r="18" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="24">
         <v>113</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="10">
         <v>0.5</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B2382-D6B4-CD4D-8B19-C62DE8C703F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D4E205-2AC6-C843-8C4A-028C98642364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D4E205-2AC6-C843-8C4A-028C98642364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40EA792-EED8-9143-89E5-06C6EF934441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40EA792-EED8-9143-89E5-06C6EF934441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FEAA8E-01DC-BD4D-942C-2BEAAC1E2DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FEAA8E-01DC-BD4D-942C-2BEAAC1E2DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72621570-94E3-0C41-AED1-5FD6E451E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72621570-94E3-0C41-AED1-5FD6E451E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E1E529-0B56-F24D-BCFE-945470EAB533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1870,37 +1870,37 @@
       <c r="BD18" s="1"/>
     </row>
     <row r="19" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="53">
         <v>106</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="10">
         <v>1.3</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
     </row>
     <row r="20" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
@@ -2042,37 +2042,37 @@
       <c r="BD22" s="44"/>
     </row>
     <row r="23" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="53">
         <v>107</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="10">
         <v>3.6</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
       <c r="AE23" s="43"/>
       <c r="AF23" s="44"/>
       <c r="AG23" s="44"/>
@@ -2098,37 +2098,37 @@
       <c r="BD23" s="44"/>
     </row>
     <row r="24" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="53">
         <v>108</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
       <c r="AE24" s="43"/>
       <c r="AF24" s="44"/>
       <c r="AG24" s="44"/>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E1E529-0B56-F24D-BCFE-945470EAB533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C45BE43-03AA-694F-8553-2E321DBFB867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1034,11 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1230,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:60" s="9" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:60" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="33"/>
       <c r="C6" s="23">
         <v>100</v>
@@ -1244,7 +1243,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13">
         <f>SUM(K7:K40)</f>
-        <v>25.299999999999997</v>
+        <v>25.300000000000004</v>
       </c>
       <c r="L6" s="13">
         <f>SUM(L7:L40)</f>
@@ -1252,11 +1251,11 @@
       </c>
       <c r="M6" s="13">
         <f>L6-K6</f>
-        <v>19.200000000000003</v>
+        <v>19.199999999999996</v>
       </c>
       <c r="N6" s="13">
         <f>SUM(N7:N40)</f>
-        <v>69.8</v>
+        <v>69.800000000000011</v>
       </c>
       <c r="O6" s="13">
         <f>SUM(O7:O40)</f>
@@ -1281,37 +1280,37 @@
       </c>
     </row>
     <row r="7" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="24">
-        <v>123</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3.7</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="B7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="47">
+        <v>101</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
@@ -1320,7 +1319,7 @@
       <c r="BF7" s="20"/>
       <c r="BH7" s="5"/>
     </row>
-    <row r="8" spans="2:60" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
         <v>37</v>
       </c>
@@ -1336,35 +1335,35 @@
       <c r="J8" s="18"/>
       <c r="K8" s="13">
         <f>SUM(G7:G7)</f>
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="L8" s="13">
         <f>SUM(H7:H7)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M8" s="13">
         <f>L8-K8</f>
-        <v>-3.7</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="13">
         <f>K8+L8</f>
-        <v>3.7</v>
+        <v>0.1</v>
       </c>
       <c r="O8" s="13">
         <f>K8+SUM(I7)</f>
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P8" s="13">
         <f>L8+SUM(J7)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" s="13">
         <f>P8-O8</f>
-        <v>-3.7</v>
+        <v>0.1</v>
       </c>
       <c r="R8" s="13">
         <f>O8+P8</f>
-        <v>3.7</v>
+        <v>0.1</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15">
@@ -1380,37 +1379,37 @@
       <c r="BH8" s="5"/>
     </row>
     <row r="9" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="24">
-        <v>124</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="B9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="47">
+        <v>103</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49">
+        <v>2</v>
+      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -1418,44 +1417,44 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="24">
-        <v>125</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="B10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="47">
+        <v>104</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49">
+        <v>2</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="2:60" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>38</v>
       </c>
@@ -1471,35 +1470,35 @@
       <c r="J11" s="18"/>
       <c r="K11" s="13">
         <f>SUM(G9:G10)</f>
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="13">
         <f>SUM(H9:H10)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="13">
         <f>L11-K11</f>
-        <v>-7.2</v>
+        <v>4</v>
       </c>
       <c r="N11" s="13">
         <f>K11+L11</f>
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="O11" s="13">
         <f>K11+SUM(I9:I10)</f>
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="13">
         <f>L11+SUM(J9:J10)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="13">
         <f>P11-O11</f>
-        <v>-7.2</v>
+        <v>4</v>
       </c>
       <c r="R11" s="13">
         <f>O11+P11</f>
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="15">
@@ -1514,16 +1513,16 @@
     </row>
     <row r="12" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="24">
-        <v>117</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="53">
+        <v>106</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>5</v>
@@ -1552,22 +1551,22 @@
     </row>
     <row r="13" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="24">
-        <v>118</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="C13" s="53">
+        <v>107</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="10">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1590,22 +1589,22 @@
     </row>
     <row r="14" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="24">
-        <v>111</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="C14" s="53">
+        <v>108</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G14" s="10">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1626,7 +1625,7 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" spans="2:60" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>73</v>
       </c>
@@ -1682,7 +1681,7 @@
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
     </row>
-    <row r="16" spans="2:60" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
         <v>73</v>
       </c>
@@ -1698,7 +1697,7 @@
       <c r="J16" s="18"/>
       <c r="K16" s="13">
         <f>SUM(G12:G15)</f>
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="L16" s="13">
         <f>SUM(H12:H15)</f>
@@ -1706,15 +1705,15 @@
       </c>
       <c r="M16" s="13">
         <f>L16-K16</f>
-        <v>0.59999999999999964</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="N16" s="13">
         <f>K16+L16</f>
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="O16" s="13">
         <f>K16+SUM(I12:I15)</f>
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="P16" s="13">
         <f>L16+SUM(J12:J15)</f>
@@ -1722,11 +1721,11 @@
       </c>
       <c r="Q16" s="13">
         <f>P16-O16</f>
-        <v>0.59999999999999964</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="R16" s="13">
         <f>O16+P16</f>
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="15">
@@ -1762,19 +1761,19 @@
         <v>39</v>
       </c>
       <c r="C17" s="24">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="10">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1818,19 +1817,19 @@
         <v>39</v>
       </c>
       <c r="C18" s="24">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G18" s="10">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1871,22 +1870,22 @@
     </row>
     <row r="19" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="53">
-        <v>106</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="C19" s="24">
+        <v>113</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G19" s="10">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1902,7 +1901,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1932,7 @@
       </c>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="46" t="s">
         <v>39</v>
       </c>
@@ -1966,7 +1965,7 @@
       <c r="S21" s="50"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33" t="s">
         <v>39</v>
       </c>
@@ -1982,7 +1981,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="13">
         <f>SUM(G17:G21)</f>
-        <v>5.3999999999999995</v>
+        <v>7.2</v>
       </c>
       <c r="L22" s="13">
         <f>SUM(H17:H21)</f>
@@ -1990,15 +1989,15 @@
       </c>
       <c r="M22" s="13">
         <f>L22-K22</f>
-        <v>3.7</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="N22" s="13">
         <f>K22+L22</f>
-        <v>14.5</v>
+        <v>16.3</v>
       </c>
       <c r="O22" s="13">
         <f>K22+SUM(I17:I21)</f>
-        <v>7.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="P22" s="13">
         <f>L22+SUM(J17:J21)</f>
@@ -2006,11 +2005,11 @@
       </c>
       <c r="Q22" s="13">
         <f>P22-O22</f>
-        <v>1.9000000000000004</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="R22" s="13">
         <f>O22+P22</f>
-        <v>16.299999999999997</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15">
@@ -2043,22 +2042,22 @@
     </row>
     <row r="23" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="53">
-        <v>107</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="C23" s="24">
+        <v>117</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="10">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -2099,19 +2098,19 @@
     </row>
     <row r="24" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="53">
-        <v>108</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="C24" s="24">
+        <v>118</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G24" s="10">
         <v>0.5</v>
@@ -2153,7 +2152,7 @@
       <c r="BC24" s="44"/>
       <c r="BD24" s="44"/>
     </row>
-    <row r="25" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="31" t="s">
         <v>40</v>
       </c>
@@ -2207,7 +2206,7 @@
       <c r="BC25" s="44"/>
       <c r="BD25" s="44"/>
     </row>
-    <row r="26" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
         <v>40</v>
       </c>
@@ -2263,7 +2262,7 @@
       <c r="BC26" s="44"/>
       <c r="BD26" s="44"/>
     </row>
-    <row r="27" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="33" t="s">
         <v>40</v>
       </c>
@@ -2279,7 +2278,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="13">
         <f>SUM(G23:G26)</f>
-        <v>4.0999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="L27" s="13">
         <f>SUM(H23:H26)</f>
@@ -2287,15 +2286,15 @@
       </c>
       <c r="M27" s="13">
         <f>L27-K27</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N27" s="13">
         <f>K27+L27</f>
-        <v>8.1</v>
+        <v>5.8</v>
       </c>
       <c r="O27" s="13">
         <f>K27+SUM(I23:I26)</f>
-        <v>5.8999999999999995</v>
+        <v>3.6</v>
       </c>
       <c r="P27" s="13">
         <f>L27+SUM(J23:J26)</f>
@@ -2303,11 +2302,11 @@
       </c>
       <c r="Q27" s="13">
         <f>P27-O27</f>
-        <v>-1.8999999999999995</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="R27" s="13">
         <f>O27+P27</f>
-        <v>9.8999999999999986</v>
+        <v>7.6</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="15">
@@ -2338,7 +2337,7 @@
       <c r="BC27" s="44"/>
       <c r="BD27" s="44"/>
     </row>
-    <row r="28" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="46" t="s">
         <v>32</v>
       </c>
@@ -2391,37 +2390,37 @@
       <c r="BD28" s="44"/>
     </row>
     <row r="29" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="47">
-        <v>103</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49">
-        <v>2</v>
-      </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
+      <c r="B29" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="24">
+        <v>123</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
       <c r="AE29" s="43"/>
       <c r="AF29" s="44"/>
       <c r="AG29" s="44"/>
@@ -2447,37 +2446,37 @@
       <c r="BD29" s="44"/>
     </row>
     <row r="30" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="47">
-        <v>104</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49">
-        <v>2</v>
-      </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
+      <c r="B30" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="24">
+        <v>124</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
       <c r="AE30" s="43"/>
       <c r="AF30" s="44"/>
       <c r="AG30" s="44"/>
@@ -2503,37 +2502,37 @@
       <c r="BD30" s="44"/>
     </row>
     <row r="31" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="47">
-        <v>101</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
+      <c r="B31" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="24">
+        <v>125</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="H31" s="52"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
       <c r="AE31" s="43"/>
       <c r="AF31" s="44"/>
       <c r="AG31" s="44"/>
@@ -2558,7 +2557,7 @@
       <c r="BC31" s="44"/>
       <c r="BD31" s="44"/>
     </row>
-    <row r="32" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="31" t="s">
         <v>32</v>
       </c>
@@ -2612,7 +2611,7 @@
       <c r="BC32" s="44"/>
       <c r="BD32" s="44"/>
     </row>
-    <row r="33" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="31" t="s">
         <v>32</v>
       </c>
@@ -2666,7 +2665,7 @@
       <c r="BC33" s="44"/>
       <c r="BD33" s="44"/>
     </row>
-    <row r="34" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="31" t="s">
         <v>32</v>
       </c>
@@ -2720,7 +2719,7 @@
       <c r="BC34" s="44"/>
       <c r="BD34" s="44"/>
     </row>
-    <row r="35" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="46" t="s">
         <v>32</v>
       </c>
@@ -2753,7 +2752,7 @@
       <c r="S35" s="50"/>
       <c r="T35" s="50"/>
     </row>
-    <row r="36" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>32</v>
       </c>
@@ -2769,35 +2768,35 @@
       <c r="J36" s="19"/>
       <c r="K36" s="13">
         <f>SUM(G28:G35)</f>
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="L36" s="13">
         <f>SUM(H28:H35)</f>
-        <v>25.9</v>
+        <v>21.8</v>
       </c>
       <c r="M36" s="13">
         <f>L36-K36</f>
-        <v>25.9</v>
+        <v>10.9</v>
       </c>
       <c r="N36" s="13">
         <f>K36+L36</f>
-        <v>25.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="O36" s="13">
         <f>K36+SUM(I28:I35)</f>
-        <v>10.8</v>
+        <v>21.700000000000003</v>
       </c>
       <c r="P36" s="13">
         <f>L36+SUM(J28:J35)</f>
-        <v>25.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q36" s="13">
         <f>P36-O36</f>
-        <v>15.099999999999998</v>
+        <v>9.9999999999997868E-2</v>
       </c>
       <c r="R36" s="13">
         <f>O36+P36</f>
-        <v>36.700000000000003</v>
+        <v>43.5</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="15">
@@ -2805,7 +2804,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="37" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="31" t="s">
         <v>41</v>
       </c>
@@ -2836,7 +2835,7 @@
       </c>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="31" t="s">
         <v>41</v>
       </c>
@@ -2867,7 +2866,7 @@
       </c>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="31" t="s">
         <v>41</v>
       </c>
@@ -2898,7 +2897,7 @@
       </c>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="2:56" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="33" t="s">
         <v>41</v>
       </c>
@@ -2968,14 +2967,9 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:T40" xr:uid="{743CE059-8904-924D-91B8-DE4031CAA294}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter val="/share*"/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="17" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:T31">
-      <sortCondition ref="D5:D40"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:T40">
+      <sortCondition ref="C5:C40"/>
     </sortState>
   </autoFilter>
   <mergeCells count="10">
@@ -3036,9 +3030,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="M6" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C45BE43-03AA-694F-8553-2E321DBFB867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466B4615-2404-7444-B028-A2D92B808725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466B4615-2404-7444-B028-A2D92B808725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902F3976-7D8B-534A-8D45-613D30B39616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -99,15 +99,6 @@
     <t>backup_04</t>
   </si>
   <si>
-    <t>backup_05</t>
-  </si>
-  <si>
-    <t>backup_06</t>
-  </si>
-  <si>
-    <t>backup_07</t>
-  </si>
-  <si>
     <t>share_08</t>
   </si>
   <si>
@@ -283,6 +274,15 @@
   </si>
   <si>
     <t>macmini-meg</t>
+  </si>
+  <si>
+    <t>backup_01</t>
+  </si>
+  <si>
+    <t>backup_02</t>
+  </si>
+  <si>
+    <t>backup_03</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1092,7 @@
   <sheetData>
     <row r="2" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
@@ -1102,7 +1102,7 @@
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
       <c r="K2" s="54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
@@ -1122,7 +1122,7 @@
       <c r="E3" s="60"/>
       <c r="F3" s="61"/>
       <c r="G3" s="56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="4" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="59" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
@@ -1172,58 +1172,58 @@
     </row>
     <row r="5" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T5" s="27" t="s">
         <v>0</v>
@@ -1281,19 +1281,19 @@
     </row>
     <row r="7" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="47">
         <v>101</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49">
@@ -1321,7 +1321,7 @@
     </row>
     <row r="8" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="23">
         <v>102</v>
@@ -1380,19 +1380,19 @@
     </row>
     <row r="9" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="47">
         <v>103</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="49">
@@ -1418,19 +1418,19 @@
     </row>
     <row r="10" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="47">
         <v>104</v>
       </c>
       <c r="D10" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="F10" s="48" t="s">
         <v>72</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>75</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="49">
@@ -1456,7 +1456,7 @@
     </row>
     <row r="11" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="23">
         <v>105</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="12" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="53">
         <v>106</v>
@@ -1522,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>5</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="13" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="53">
         <v>107</v>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>4</v>
@@ -1589,19 +1589,19 @@
     </row>
     <row r="14" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="53">
         <v>108</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="10">
         <v>0.5</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="15" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="53">
         <v>109</v>
@@ -1639,7 +1639,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10">
@@ -1683,7 +1683,7 @@
     </row>
     <row r="16" spans="2:60" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" s="23">
         <v>110</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="17" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="24">
         <v>111</v>
@@ -1767,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>5</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="18" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="24">
         <v>112</v>
@@ -1823,7 +1823,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>4</v>
@@ -1870,19 +1870,19 @@
     </row>
     <row r="19" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="24">
         <v>113</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G19" s="10">
         <v>0.5</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="20" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="25">
         <v>114</v>
@@ -1911,7 +1911,7 @@
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
       <c r="F20" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="21" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="51">
         <v>115</v>
@@ -1943,10 +1943,10 @@
         <v>11</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="49">
@@ -1967,7 +1967,7 @@
     </row>
     <row r="22" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="26">
         <v>116</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="23" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" s="24">
         <v>117</v>
@@ -2051,7 +2051,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>5</v>
@@ -2098,16 +2098,16 @@
     </row>
     <row r="24" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" s="24">
         <v>118</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>4</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="25" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="25">
         <v>119</v>
@@ -2162,7 +2162,7 @@
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="26" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="51">
         <v>120</v>
@@ -2217,10 +2217,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G26" s="49"/>
       <c r="H26" s="49">
@@ -2264,7 +2264,7 @@
     </row>
     <row r="27" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="26">
         <v>121</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="28" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="51">
         <v>122</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="29" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29" s="24">
         <v>123</v>
@@ -2400,10 +2400,10 @@
         <v>15</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G29" s="10">
         <v>3.7</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="30" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30" s="24">
         <v>124</v>
@@ -2456,10 +2456,10 @@
         <v>16</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G30" s="10">
         <v>3.6</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="31" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="24">
         <v>125</v>
@@ -2512,10 +2512,10 @@
         <v>17</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G31" s="10">
         <v>3.6</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="32" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32" s="25">
         <v>126</v>
@@ -2567,7 +2567,7 @@
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>
       <c r="F32" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="33" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C33" s="25">
         <v>126</v>
@@ -2621,7 +2621,7 @@
       <c r="D33" s="30"/>
       <c r="E33" s="31"/>
       <c r="F33" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="34" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="25">
         <v>126</v>
@@ -2675,7 +2675,7 @@
       <c r="D34" s="30"/>
       <c r="E34" s="31"/>
       <c r="F34" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="35" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35" s="51">
         <v>127</v>
@@ -2730,10 +2730,10 @@
         <v>11</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G35" s="49"/>
       <c r="H35" s="49">
@@ -2754,7 +2754,7 @@
     </row>
     <row r="36" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C36" s="26">
         <v>128</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="37" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="25">
         <v>129</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="38" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="25">
         <v>130</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="39" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C39" s="25">
         <v>131</v>
@@ -2876,7 +2876,7 @@
       <c r="D39" s="30"/>
       <c r="E39" s="31"/>
       <c r="F39" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="40" spans="2:56" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" s="26">
         <v>132</v>
@@ -2986,45 +2986,45 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1 E5:E1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6 Q6:Q40">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>M6&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>M8&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>M11&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>M16&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>M22&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>M27&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>M36&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
       <formula>M40&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3054,21 +3054,21 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="37"/>
       <c r="C2" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="39">
         <v>0.5</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="39">
         <v>1</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="39">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="39">
         <v>25</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="39">
         <v>30</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="39">
         <v>20</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="39">
         <v>412</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="39">
         <f>1.3*1024</f>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="41">
         <f>SUM(C7:C11)</f>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="41">
         <f>SUM(C3:C11)</f>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="41">
         <f>C14-C13</f>
@@ -3303,7 +3303,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C15:F15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>C15&lt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/max_mad/_fedora/install_volumes.xlsx
+++ b/src/max_mad/_fedora/install_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/src/max_mad/_fedora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902F3976-7D8B-534A-8D45-613D30B39616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392C2148-5B96-6B47-BEAA-85B7B50A813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="500" windowWidth="35700" windowHeight="24640" xr2:uid="{29B6FCDA-2052-C242-834F-5F308DA013F5}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
   <dimension ref="B2:BH44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G29" sqref="G29:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
